--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JacksonAlessandrodos\Documents\GitHub\ocb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081DA1B1-6856-44C6-9180-C67BD903E012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D090BCFB-7D28-4C3C-BB6B-FA145A56A71C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C3A8E743-1D4C-4CD8-88C3-786C813AB08A}"/>
+    <workbookView xWindow="-28920" yWindow="-4875" windowWidth="29040" windowHeight="15990" xr2:uid="{C3A8E743-1D4C-4CD8-88C3-786C813AB08A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="141">
   <si>
     <t>Tela</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>String(10)</t>
+  </si>
+  <si>
+    <t>Dual-state button</t>
   </si>
 </sst>
 </file>
@@ -519,9 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,6 +530,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -849,8 +852,8 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,54 +869,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
+      <c r="A1" s="7"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1844,7 +1847,16 @@
         <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>140</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -1984,7 +1996,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
         <v>44</v>
@@ -2007,7 +2019,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>44</v>
@@ -2030,7 +2042,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
         <v>44</v>
@@ -2053,7 +2065,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
         <v>44</v>
@@ -2076,7 +2088,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
         <v>44</v>
@@ -2099,7 +2111,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
         <v>44</v>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacks\OneDrive\Documentos\Github\ocb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb1ac1d568b26fa6/Documentos/Github/ocb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B1AE9B-FBCA-4719-B508-737F3142BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{13B1AE9B-FBCA-4719-B508-737F3142BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFB95692-B2E3-4860-9F04-ABA7AC0D5777}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C3A8E743-1D4C-4CD8-88C3-786C813AB08A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3A8E743-1D4C-4CD8-88C3-786C813AB08A}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos Nextion" sheetId="1" r:id="rId1"/>
+    <sheet name="Raspberry" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Objetos Nextion'!$A$2:$N$152</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="273">
   <si>
     <t>Tela</t>
   </si>
@@ -216,12 +217,6 @@
     <t>Bateria</t>
   </si>
   <si>
-    <t>Botão Telefone</t>
-  </si>
-  <si>
-    <t>Botão setup</t>
-  </si>
-  <si>
     <t>Iluminação</t>
   </si>
   <si>
@@ -318,9 +313,6 @@
     <t>Botão Setup</t>
   </si>
   <si>
-    <t>Botão Mute</t>
-  </si>
-  <si>
     <t>Volume</t>
   </si>
   <si>
@@ -489,9 +481,6 @@
     <t>bt_sd</t>
   </si>
   <si>
-    <t>Botão Midia</t>
-  </si>
-  <si>
     <t>Setup</t>
   </si>
   <si>
@@ -609,9 +598,6 @@
     <t>Teclado</t>
   </si>
   <si>
-    <t>Controles</t>
-  </si>
-  <si>
     <t>bt_back_space</t>
   </si>
   <si>
@@ -688,6 +674,189 @@
   </si>
   <si>
     <t>Global</t>
+  </si>
+  <si>
+    <t>BOARD</t>
+  </si>
+  <si>
+    <t>BCM</t>
+  </si>
+  <si>
+    <t>DESCRIBE</t>
+  </si>
+  <si>
+    <t>3.3v</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>GPIO02</t>
+  </si>
+  <si>
+    <t>SDA1 - I2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5v    </t>
+  </si>
+  <si>
+    <t>GPIO03</t>
+  </si>
+  <si>
+    <t>SCL1 - I2C</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>GPIO04</t>
+  </si>
+  <si>
+    <t>GPIO_GCLK</t>
+  </si>
+  <si>
+    <t>GPIO14</t>
+  </si>
+  <si>
+    <t>TXD0</t>
+  </si>
+  <si>
+    <t>GPIO15</t>
+  </si>
+  <si>
+    <t>RXD0</t>
+  </si>
+  <si>
+    <t>GPIO17</t>
+  </si>
+  <si>
+    <t>GPIO_GEN0</t>
+  </si>
+  <si>
+    <t>GPIO18</t>
+  </si>
+  <si>
+    <t>GPIO_GEN1</t>
+  </si>
+  <si>
+    <t>GPIO27</t>
+  </si>
+  <si>
+    <t>GPIO_GEN2</t>
+  </si>
+  <si>
+    <t>GPIO22</t>
+  </si>
+  <si>
+    <t>GPIO_GEN3</t>
+  </si>
+  <si>
+    <t>GPIO23</t>
+  </si>
+  <si>
+    <t>GPIO_GEN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3v  </t>
+  </si>
+  <si>
+    <t>GPIO24</t>
+  </si>
+  <si>
+    <t>GPIO_GEN5</t>
+  </si>
+  <si>
+    <t>GPIO10</t>
+  </si>
+  <si>
+    <t>SPI_MOSI</t>
+  </si>
+  <si>
+    <t>GPIO09</t>
+  </si>
+  <si>
+    <t>SPI_MISO</t>
+  </si>
+  <si>
+    <t>GPIO25</t>
+  </si>
+  <si>
+    <t>GPIO_GEN6</t>
+  </si>
+  <si>
+    <t>GPIO11</t>
+  </si>
+  <si>
+    <t>SPI_CLK</t>
+  </si>
+  <si>
+    <t>GPIO08</t>
+  </si>
+  <si>
+    <t>SPI_CE0_N</t>
+  </si>
+  <si>
+    <t>GPIO07</t>
+  </si>
+  <si>
+    <t>SPI_CE1_N</t>
+  </si>
+  <si>
+    <t>ID_SD</t>
+  </si>
+  <si>
+    <t>ID_SC</t>
+  </si>
+  <si>
+    <t>GPIO05</t>
+  </si>
+  <si>
+    <t>GPIO06</t>
+  </si>
+  <si>
+    <t>GPIO12</t>
+  </si>
+  <si>
+    <t>GPIO13</t>
+  </si>
+  <si>
+    <t>GPIO19</t>
+  </si>
+  <si>
+    <t>GPIO16</t>
+  </si>
+  <si>
+    <t>GPIO26</t>
+  </si>
+  <si>
+    <t>GPIO20</t>
+  </si>
+  <si>
+    <t>GPIO21</t>
+  </si>
+  <si>
+    <t>Mostra a Banda</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Dados Midia</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Menu Midia</t>
+  </si>
+  <si>
+    <t>Botão Opções</t>
+  </si>
+  <si>
+    <t>I2C ID EEPROM</t>
   </si>
 </sst>
 </file>
@@ -1078,9 +1247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B348617-EA30-4965-BF17-B2EA19465609}">
   <dimension ref="A1:N152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F92:F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,7 +1282,7 @@
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1122,7 +1291,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -1131,7 +1300,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>2</v>
@@ -1152,7 +1321,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1160,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -1169,13 +1338,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1198,7 +1367,7 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
@@ -1227,7 +1396,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
@@ -1256,7 +1425,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
@@ -1285,7 +1454,7 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
@@ -1314,7 +1483,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>10</v>
@@ -1343,7 +1512,7 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>19</v>
@@ -1384,7 +1553,7 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
@@ -1413,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
@@ -1425,7 +1594,7 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
@@ -1454,7 +1623,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -1466,7 +1635,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1477,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
@@ -1489,7 +1658,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1512,13 +1681,13 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1541,13 +1710,13 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1570,13 +1739,13 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1599,13 +1768,13 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1628,13 +1797,13 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1657,13 +1826,13 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1686,7 +1855,7 @@
         <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>10</v>
@@ -1703,19 +1872,19 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>19</v>
@@ -1729,19 +1898,19 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
         <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>19</v>
@@ -1755,19 +1924,19 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
         <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>19</v>
@@ -1790,13 +1959,13 @@
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
         <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>19</v>
@@ -1819,13 +1988,13 @@
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
         <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>19</v>
@@ -1842,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1">
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
@@ -1877,13 +2046,13 @@
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -1900,19 +2069,19 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
         <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -1929,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F29" t="s">
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>19</v>
@@ -1958,19 +2127,19 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1">
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>19</v>
@@ -1987,19 +2156,19 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
@@ -2022,13 +2191,13 @@
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F32" t="s">
         <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>19</v>
@@ -2045,19 +2214,19 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33" s="1">
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>19</v>
@@ -2074,19 +2243,19 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1">
         <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>19</v>
@@ -2103,19 +2272,19 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1">
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
         <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
@@ -2138,13 +2307,13 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F36" t="s">
         <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
@@ -2185,7 +2354,7 @@
         <v>26</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>10</v>
@@ -2202,7 +2371,7 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="D38" s="1">
         <v>36</v>
@@ -2214,7 +2383,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2225,19 +2394,19 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1">
         <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
         <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
@@ -2254,19 +2423,19 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1">
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -2295,19 +2464,19 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1">
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2318,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1">
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2341,19 +2510,19 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J43" s="1">
         <v>0</v>
@@ -2379,13 +2548,13 @@
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J44" s="1">
         <v>860</v>
@@ -2417,13 +2586,13 @@
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2440,13 +2609,13 @@
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -2463,19 +2632,19 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
         <v>109</v>
       </c>
-      <c r="F47" t="s">
-        <v>112</v>
-      </c>
       <c r="G47" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2492,16 +2661,16 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>13</v>
@@ -2521,16 +2690,16 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G49" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>13</v>
@@ -2550,13 +2719,13 @@
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F50" t="s">
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>10</v>
@@ -2565,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -2582,13 +2751,13 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -2605,13 +2774,13 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -2628,13 +2797,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -2651,13 +2820,13 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -2668,19 +2837,19 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="D55" s="1">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F55" t="s">
         <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -2691,19 +2860,19 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="D56" s="1">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F56" t="s">
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -2714,19 +2883,19 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="D57" s="1">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F57" t="s">
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -2737,19 +2906,19 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D58" s="1">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F58" t="s">
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -2760,19 +2929,19 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D59" s="1">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F59" t="s">
         <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -2780,22 +2949,22 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
         <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -2803,22 +2972,22 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G61" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>19</v>
@@ -2838,22 +3007,22 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D62" s="1">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G62" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>19</v>
@@ -2873,22 +3042,22 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D63" s="1">
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G63" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>19</v>
@@ -2908,22 +3077,22 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -2931,22 +3100,22 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -2954,22 +3123,22 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D66" s="1">
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -2977,22 +3146,22 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D67" s="1">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -3000,22 +3169,22 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D68" s="1">
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -3023,22 +3192,22 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D69" s="1">
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -3046,22 +3215,22 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D70" s="1">
         <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F70" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G70" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
@@ -3078,22 +3247,22 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D71" s="1">
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F71" t="s">
         <v>25</v>
       </c>
       <c r="G71" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>19</v>
@@ -3116,22 +3285,22 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D72" s="1">
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F72" t="s">
         <v>25</v>
       </c>
       <c r="G72" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>19</v>
@@ -3154,22 +3323,22 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F73" t="s">
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -3177,22 +3346,22 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -3200,7 +3369,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
         <v>57</v>
@@ -3215,13 +3384,13 @@
         <v>26</v>
       </c>
       <c r="G75" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -3229,22 +3398,22 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D76" s="1">
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F76" t="s">
         <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -3252,22 +3421,22 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F77" t="s">
         <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -3275,22 +3444,22 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D78" s="1">
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F78" t="s">
         <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -3298,22 +3467,22 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D79" s="1">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F79" t="s">
         <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -3321,22 +3490,22 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D80" s="1">
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F80" t="s">
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -3344,22 +3513,22 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D81" s="1">
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F81" t="s">
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3367,22 +3536,22 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D82" s="1">
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F82" t="s">
         <v>41</v>
       </c>
       <c r="G82" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3390,22 +3559,22 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D83" s="1">
         <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F83" t="s">
         <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3413,22 +3582,22 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D84" s="1">
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F84" t="s">
         <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -3436,22 +3605,22 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D85" s="1">
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F85" t="s">
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -3459,22 +3628,22 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D86" s="1">
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F86" t="s">
         <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3482,22 +3651,22 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D87" s="1">
         <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F87" t="s">
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3505,22 +3674,22 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D88" s="1">
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F88" t="s">
         <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3528,22 +3697,22 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D89" s="1">
         <v>17</v>
       </c>
       <c r="E89" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F89" t="s">
         <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -3551,22 +3720,22 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D90" s="1">
         <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F90" t="s">
         <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -3574,22 +3743,22 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D91" s="1">
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F91" t="s">
         <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -3597,22 +3766,22 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F92" t="s">
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3620,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -3629,13 +3798,13 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
         <v>26</v>
       </c>
       <c r="G93" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>10</v>
@@ -3646,7 +3815,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -3655,13 +3824,13 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
         <v>26</v>
       </c>
       <c r="G94" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>10</v>
@@ -3672,22 +3841,22 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3695,22 +3864,22 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="D96" s="1">
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F96" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -3718,22 +3887,22 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C97" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="D97" s="1">
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F97" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G97" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -3741,22 +3910,22 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D98" s="1">
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
         <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -3764,22 +3933,22 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D99" s="1">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F99" t="s">
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -3787,22 +3956,22 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D100" s="1">
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F100" t="s">
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -3810,22 +3979,22 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C101" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D101" s="1">
         <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F101" t="s">
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -3833,22 +4002,22 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D102" s="1">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F102" t="s">
         <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -3856,22 +4025,22 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D103" s="1">
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F103" t="s">
         <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -3879,22 +4048,22 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D104" s="1">
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F104" t="s">
         <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -3902,22 +4071,22 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D105" s="1">
         <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F105" t="s">
         <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -3925,22 +4094,22 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D106" s="1">
         <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F106" t="s">
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -3948,22 +4117,28 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="D107" s="1">
         <v>17</v>
       </c>
       <c r="E107" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" t="s">
+        <v>109</v>
+      </c>
+      <c r="G107" t="s">
+        <v>210</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F107" t="s">
-        <v>38</v>
-      </c>
-      <c r="G107" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -3971,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C108" t="s">
         <v>42</v>
@@ -3980,19 +4155,19 @@
         <v>18</v>
       </c>
       <c r="E108" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" t="s">
         <v>109</v>
       </c>
-      <c r="F108" t="s">
-        <v>112</v>
-      </c>
       <c r="G108" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -4000,7 +4175,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s">
         <v>42</v>
@@ -4009,19 +4184,19 @@
         <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="F109" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G109" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>193</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -4029,28 +4204,22 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="D110" s="1">
         <v>20</v>
       </c>
       <c r="E110" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F110" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>215</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -4058,22 +4227,22 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D111" s="1">
         <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F111" t="s">
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -4084,19 +4253,19 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F112" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>19</v>
@@ -4125,19 +4294,19 @@
         <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F113" t="s">
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -4154,19 +4323,19 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
+        <v>106</v>
+      </c>
+      <c r="F114" t="s">
         <v>109</v>
       </c>
-      <c r="F114" t="s">
-        <v>112</v>
-      </c>
       <c r="G114" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -4183,16 +4352,16 @@
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F115" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G115" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>13</v>
@@ -4212,16 +4381,16 @@
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F116" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G116" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>13</v>
@@ -4235,19 +4404,19 @@
         <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D117" s="1">
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F117" t="s">
         <v>26</v>
       </c>
       <c r="G117" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>10</v>
@@ -4266,17 +4435,20 @@
       <c r="B118" t="s">
         <v>41</v>
       </c>
+      <c r="C118" t="s">
+        <v>265</v>
+      </c>
       <c r="D118" s="1">
         <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F118" t="s">
         <v>26</v>
       </c>
       <c r="G118" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>10</v>
@@ -4293,7 +4465,7 @@
         <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D119" s="1">
         <v>9</v>
@@ -4305,7 +4477,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -4316,25 +4488,25 @@
         <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D120" s="1">
         <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F120" t="s">
         <v>26</v>
       </c>
       <c r="G120" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
@@ -4345,25 +4517,25 @@
         <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D121" s="1">
         <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F121" t="s">
         <v>26</v>
       </c>
       <c r="G121" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -4374,19 +4546,19 @@
         <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D122" s="1">
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F122" t="s">
         <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
@@ -4397,19 +4569,19 @@
         <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D123" s="1">
         <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F123" t="s">
         <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
@@ -4420,25 +4592,25 @@
         <v>41</v>
       </c>
       <c r="C124" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D124" s="1">
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F124" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G124" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
@@ -4449,19 +4621,19 @@
         <v>41</v>
       </c>
       <c r="C125" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D125" s="1">
         <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F125" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G125" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>19</v>
@@ -4490,19 +4662,19 @@
         <v>41</v>
       </c>
       <c r="C126" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D126" s="1">
         <v>16</v>
       </c>
       <c r="E126" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F126" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G126" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -4513,22 +4685,22 @@
         <v>41</v>
       </c>
       <c r="C127" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D127" s="1">
         <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F127" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G127" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
@@ -4539,19 +4711,19 @@
         <v>41</v>
       </c>
       <c r="C128" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D128" s="1">
         <v>18</v>
       </c>
       <c r="E128" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F128" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G128" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>19</v>
@@ -4574,25 +4746,25 @@
         <v>41</v>
       </c>
       <c r="C129" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D129" s="1">
         <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F129" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G129" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -4603,25 +4775,25 @@
         <v>41</v>
       </c>
       <c r="C130" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D130" s="1">
         <v>20</v>
       </c>
       <c r="E130" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F130" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G130" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -4632,25 +4804,25 @@
         <v>41</v>
       </c>
       <c r="C131" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D131" s="1">
         <v>21</v>
       </c>
       <c r="E131" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F131" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G131" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -4661,25 +4833,25 @@
         <v>41</v>
       </c>
       <c r="C132" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D132" s="1">
         <v>22</v>
       </c>
       <c r="E132" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F132" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G132" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -4690,25 +4862,25 @@
         <v>41</v>
       </c>
       <c r="C133" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D133" s="1">
         <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F133" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G133" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -4718,17 +4890,20 @@
       <c r="B134" t="s">
         <v>41</v>
       </c>
+      <c r="C134" t="s">
+        <v>266</v>
+      </c>
       <c r="D134" s="1">
         <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F134" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G134" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -4738,17 +4913,20 @@
       <c r="B135" t="s">
         <v>41</v>
       </c>
+      <c r="C135" t="s">
+        <v>266</v>
+      </c>
       <c r="D135" s="1">
         <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F135" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G135" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -4756,22 +4934,22 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C136" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F136" t="s">
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -4779,22 +4957,22 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C137" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
       </c>
       <c r="E137" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F137" t="s">
         <v>26</v>
       </c>
       <c r="G137" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>10</v>
@@ -4808,10 +4986,10 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="D138" s="1">
         <v>3</v>
@@ -4823,7 +5001,7 @@
         <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -4831,22 +5009,22 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C139" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="D139" s="1">
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F139" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G139" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -4854,28 +5032,28 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="D140" s="1">
         <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F140" t="s">
         <v>26</v>
       </c>
       <c r="G140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -4883,28 +5061,28 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="D141" s="1">
         <v>6</v>
       </c>
       <c r="E141" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F141" t="s">
         <v>26</v>
       </c>
       <c r="G141" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -4912,28 +5090,28 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="D142" s="1">
         <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F142" t="s">
         <v>26</v>
       </c>
       <c r="G142" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -4941,22 +5119,22 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C143" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="D143" s="1">
         <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F143" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G143" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -4964,22 +5142,22 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C144" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="D144" s="1">
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F144" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G144" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
@@ -4987,22 +5165,22 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C145" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="D145" s="1">
         <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F145" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G145" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -5010,22 +5188,22 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C146" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="D146" s="1">
         <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F146" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G146" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -5033,22 +5211,22 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C147" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="D147" s="1">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F147" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G147" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -5056,22 +5234,22 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C148" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="D148" s="1">
         <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F148" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G148" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -5079,22 +5257,22 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C149" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="D149" s="1">
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F149" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G149" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>19</v>
@@ -5120,22 +5298,22 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C150" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="D150" s="1">
         <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F150" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G150" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -5143,22 +5321,22 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C151" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="D151" s="1">
         <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F151" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G151" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -5166,22 +5344,22 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C152" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="D152" s="1">
         <v>17</v>
       </c>
       <c r="E152" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F152" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G152" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J152" s="1">
         <v>0</v>
@@ -5208,4 +5386,412 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532C3F6C-BD7C-4BA5-9AD2-5B385AB36E7C}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb1ac1d568b26fa6/Documentos/Github/ocb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{13B1AE9B-FBCA-4719-B508-737F3142BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFB95692-B2E3-4860-9F04-ABA7AC0D5777}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{13B1AE9B-FBCA-4719-B508-737F3142BB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32F28AD2-B956-40F9-91AB-CFAAC6B0FBE1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C3A8E743-1D4C-4CD8-88C3-786C813AB08A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C3A8E743-1D4C-4CD8-88C3-786C813AB08A}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos Nextion" sheetId="1" r:id="rId1"/>
-    <sheet name="Raspberry" sheetId="2" r:id="rId2"/>
+    <sheet name="Raspberry" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Objetos Nextion'!$A$2:$N$152</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="278">
   <si>
     <t>Tela</t>
   </si>
@@ -857,13 +857,28 @@
   </si>
   <si>
     <t>I2C ID EEPROM</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Monitor RX - Amarelo</t>
+  </si>
+  <si>
+    <t>Monitor TX - Azul</t>
+  </si>
+  <si>
+    <t>GRD 3.3v</t>
+  </si>
+  <si>
+    <t>Temperatura Interna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,13 +900,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -915,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -929,6 +969,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -946,6 +998,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B35DE9-ECD0-4044-B880-4037EAD7AEC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="44422" t="10044" r="44473" b="4120"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="104776"/>
+          <a:ext cx="504825" cy="4333874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1247,9 +1357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B348617-EA30-4965-BF17-B2EA19465609}">
   <dimension ref="A1:N152"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F92:F97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5389,409 +5499,420 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532C3F6C-BD7C-4BA5-9AD2-5B385AB36E7C}">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151E1BEB-3E77-44B2-AA44-12447C6252F4}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    </row>
+    <row r="3" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C3" t="s">
         <v>217</v>
       </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
       <c r="C4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
         <v>220</v>
       </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
       <c r="C6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>223</v>
+      <c r="G6" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>225</v>
+        <v>233</v>
+      </c>
+      <c r="D8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" t="s">
+        <v>237</v>
+      </c>
+      <c r="J9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J10" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>229</v>
+      <c r="J11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>231</v>
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" t="s">
+        <v>246</v>
+      </c>
+      <c r="J12" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>233</v>
+        <v>248</v>
+      </c>
+      <c r="D13" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" t="s">
+        <v>251</v>
+      </c>
+      <c r="I13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J13" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>235</v>
+      <c r="H14" t="s">
+        <v>253</v>
+      </c>
+      <c r="I14" t="s">
+        <v>252</v>
+      </c>
+      <c r="J14" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" t="s">
+        <v>272</v>
+      </c>
+      <c r="I15" t="s">
+        <v>255</v>
+      </c>
+      <c r="J15" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>237</v>
+        <v>256</v>
+      </c>
+      <c r="I16" t="s">
+        <v>222</v>
+      </c>
+      <c r="J16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>240</v>
+        <v>257</v>
+      </c>
+      <c r="I17" t="s">
+        <v>258</v>
+      </c>
+      <c r="J17" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>259</v>
+      </c>
+      <c r="I18" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>242</v>
+        <v>260</v>
+      </c>
+      <c r="I19" t="s">
+        <v>261</v>
+      </c>
+      <c r="J19" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" t="s">
+        <v>263</v>
+      </c>
+      <c r="J20" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="I21" t="s">
+        <v>264</v>
+      </c>
+      <c r="J21" s="1">
         <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>